--- a/TOT_Carbon_Emission_GTCO2_PY.xlsx
+++ b/TOT_Carbon_Emission_GTCO2_PY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanda.debmallya/Desktop/GAMS DICE 2023/DICE 2023 Carbon Budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75125FA-83FA-5648-A53E-2DA2FF11BE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3325B90B-801B-8843-ABA1-3A7568ADD48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1320" windowWidth="27760" windowHeight="16940" activeTab="2" xr2:uid="{92C86D4D-B8E8-C24D-AB5F-23661A392B65}"/>
+    <workbookView xWindow="1440" yWindow="1320" windowWidth="27760" windowHeight="16940" xr2:uid="{92C86D4D-B8E8-C24D-AB5F-23661A392B65}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,61 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Carbon Emission, GtCO2/year </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Baseline</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Scenario</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -134,13 +189,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -776,6 +845,119 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Total Carbon Emission, GtCO2/year Optimal Scenario</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -788,13 +970,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1430,6 +1626,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Carbon Emission, GtCO2/year for R = 1% </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4179,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84D575B-BC97-E243-99F4-39CABA636932}">
   <dimension ref="A1:C16384"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -69914,7 +70140,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A26"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -70215,8 +70441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E98834-6BA7-7C4F-8BB0-9A1F25933F78}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
